--- a/backend/reportes/reporte_hospital_2025-04_UNIS.xlsx
+++ b/backend/reportes/reporte_hospital_2025-04_UNIS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,10 +34,19 @@
     <t>Perro (examen)</t>
   </si>
   <si>
+    <t>Sofi Santos</t>
+  </si>
+  <si>
+    <t>operacion (corazon)</t>
+  </si>
+  <si>
     <t>Julietota De la paz</t>
   </si>
   <si>
-    <t>operacion (corazon)</t>
+    <t>Gio fase 3 fase 3</t>
+  </si>
+  <si>
+    <t>maiu2 (michi)</t>
   </si>
   <si>
     <t/>
@@ -421,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -465,7 +474,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45761.93071675926</v>
+        <v>45771.03159136574</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -474,24 +483,58 @@
         <v>8</v>
       </c>
       <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45761.93071675926</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>900</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45764.659129120366</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>950</v>
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>2450</v>
       </c>
     </row>
   </sheetData>
